--- a/StructureDefinition-ext-R5-Contract.rule.xlsx
+++ b/StructureDefinition-ext-R5-Contract.rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-Contract.rule.xlsx
+++ b/StructureDefinition-ext-R5-Contract.rule.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Contract.rule` 0..* `BackboneElement`
 *  R4: `Contract.rule` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Contract.rule` is mapped to FHIR R4 element `Contract.rule`.</t>
+Element `Contract.rule` has is mapped to FHIR R4 element `Contract.rule`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,8 +340,9 @@
     <t>Computable Contract conveyed using a policy rule language (e.g. XACML, DKAL, SecPal).</t>
   </si>
   <si>
-    <t>Note that the target element context `Contract.rule.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Contract.rule`.
-Element `Contract.rule.content[x]` is mapped to FHIR R4 element `Contract.rule.content[x]`.
+    <t>Element `Contract.rule.content[x]` is part of an existing definition because parent element `Contract.rule` requires a cross-version extension.
+Note that the target element context `Contract.rule.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Contract.rule`.
+Element `Contract.rule.content[x]` has is mapped to FHIR R4 element `Contract.rule.content[x]`, but has no comparisons.
 Note that the target element context `Contract.rule.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Contract.rule`.</t>
   </si>
   <si>
@@ -387,6 +388,9 @@
   </si>
   <si>
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.rule.content</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -1565,7 +1569,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1607,7 +1611,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1622,15 +1626,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1653,7 +1657,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1710,7 +1714,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1722,18 +1726,18 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1815,7 +1819,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>86</v>
@@ -1830,15 +1834,15 @@
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1861,13 +1865,13 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1918,7 +1922,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -1930,10 +1934,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Contract.rule.xlsx
+++ b/StructureDefinition-ext-R5-Contract.rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -405,7 +405,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-Contract.rule.xlsx
+++ b/StructureDefinition-ext-R5-Contract.rule.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Contract.rule` 0..* `BackboneElement`
 *  R4: `Contract.rule` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Contract.rule` has is mapped to FHIR R4 element `Contract.rule`, but has no comparisons.</t>
+Element `Contract.rule` is mapped to FHIR R4 element `Contract.rule` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,9 +340,8 @@
     <t>Computable Contract conveyed using a policy rule language (e.g. XACML, DKAL, SecPal).</t>
   </si>
   <si>
-    <t>Element `Contract.rule.content[x]` is part of an existing definition because parent element `Contract.rule` requires a cross-version extension.
-Note that the target element context `Contract.rule.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Contract.rule`.
-Element `Contract.rule.content[x]` has is mapped to FHIR R4 element `Contract.rule.content[x]`, but has no comparisons.
+    <t>Note that the target element context `Contract.rule.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Contract.rule`.
+Element `Contract.rule.content[x]` is mapped to FHIR R4 element `Contract.rule.content[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `Contract.rule.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Contract.rule`.</t>
   </si>
   <si>
@@ -390,9 +389,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.rule.content</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -405,7 +401,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
 </t>
   </si>
   <si>
@@ -763,7 +759,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="148.95703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="152.95703125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1569,49 +1565,49 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1626,15 +1622,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1657,7 +1653,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1714,7 +1710,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1726,18 +1722,18 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1819,7 +1815,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>86</v>
@@ -1834,15 +1830,15 @@
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1865,13 +1861,13 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1922,7 +1918,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -1934,10 +1930,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
